--- a/Rulesets&FalsosPositivos.xlsx
+++ b/Rulesets&FalsosPositivos.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ignac\Documents\TFG - Detección de ataques en red\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5475D-D111-451B-B87D-6BEF133D2CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62119E74-3246-4852-86C0-C2040477035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rulesets Modificados" sheetId="1" r:id="rId1"/>
+    <sheet name="Rulesets sin error" sheetId="1" r:id="rId1"/>
     <sheet name="Falsos positivos Snort" sheetId="2" r:id="rId2"/>
+    <sheet name="Resultados tras ajuste" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="86">
   <si>
     <t>SNORT</t>
   </si>
@@ -296,12 +300,36 @@
   <si>
     <t>20, 2002749, 2002752, 2027397, 2100381, 2100384, 2100402, 2100408, 2100472, 2100527, 2101384, 2101411, 2101417, 2101917</t>
   </si>
+  <si>
+    <t>2101384, 2101411, 2019102, 2027397</t>
+  </si>
+  <si>
+    <t>1, 3, 15, 18, 20, 2101384, 2101411, 2019102, 2027397</t>
+  </si>
+  <si>
+    <t>1, 3, 15, 18, 20, 2001117, 2002749, 2002752, 2027397, 2100381, 2100384, 2100339, 2100402, 2100408, 2100472, 2100527, 2101384, 2101390, 2101411, 2101417, 2101917</t>
+  </si>
+  <si>
+    <t>FORTIGATE</t>
+  </si>
+  <si>
+    <t>PALOALTO</t>
+  </si>
+  <si>
+    <t>#SIDs únicos en tráfico legítimo</t>
+  </si>
+  <si>
+    <t>BÁSICO</t>
+  </si>
+  <si>
+    <t>DIT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +398,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -426,8 +470,38 @@
         <bgColor rgb="FFDAF1F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -574,12 +648,145 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -588,87 +795,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -677,43 +803,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -722,6 +832,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FF66FFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -731,6 +847,512 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Número de SIDs Únicos en las detecciones del Tráfico Legítimo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RS1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BÁSICO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CD8-4779-9BA6-AF666635FB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RS2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BÁSICO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CD8-4779-9BA6-AF666635FB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RS3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BÁSICO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7CD8-4779-9BA6-AF666635FB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RS4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BÁSICO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7CD8-4779-9BA6-AF666635FB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fortigate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BÁSICO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7CD8-4779-9BA6-AF666635FB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PaloAlto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Sheet1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BÁSICO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DIT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TOTAL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Sheet1!$G$2:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7CD8-4779-9BA6-AF666635FB3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="10"/>
+        <c:axId val="100"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="10"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Categoría</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Número de SIDs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,8 +1543,226 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>320040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0219DAB0-8431-8148-7BB4-D69F4B8C1E63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734800" y="137160"/>
+          <a:ext cx="4069080" cy="1661160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600"/>
+            <a:t>Resultados</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-ES" sz="1600" baseline="0"/>
+            <a:t> tras el ajuste de reglas</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-ES" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5400000" cy="2700000"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963E22BA-95B8-48AC-9E54-75A2B5629077}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>RS1</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>RS2</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>RS3</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>RS4</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>Fortigate</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>PaloAlto</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>BÁSICO</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>DIT</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>TOTAL</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>1</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1190,8 +2030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1203,149 +2043,149 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:10">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="6" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="75" customHeight="1">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="E7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7">
         <v>45765</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="21">
+      <c r="E8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15">
         <v>45765</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="19" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="91.8" customHeight="1">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="13">
         <v>35763</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="14">
         <v>10605</v>
       </c>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="26" t="s">
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="24" t="s">
+      <c r="I9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="21"/>
     </row>
     <row r="10" spans="2:10" ht="49.95" customHeight="1">
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="23">
         <v>47830</v>
       </c>
-      <c r="E10" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="34" t="s">
+      <c r="E10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1361,10 +2201,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A4720AF-B4C4-463A-829A-77951BE6D257}">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1386,758 +2226,771 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="36" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="38" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="39"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="52"/>
+      <c r="K1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="52"/>
+      <c r="M1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="39"/>
+      <c r="N1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="41.4">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="40" t="s">
+      <c r="M2" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="31" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="33">
         <v>61</v>
       </c>
-      <c r="F3" s="43">
+      <c r="F3" s="33">
         <v>16</v>
       </c>
-      <c r="G3" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="43">
+      <c r="G3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="33">
         <v>0</v>
       </c>
-      <c r="I3" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="43">
+      <c r="I3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="33">
         <v>0</v>
       </c>
-      <c r="K3" s="44" t="s">
+      <c r="K3" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="L3" s="43">
+      <c r="L3" s="33">
         <v>2</v>
       </c>
-      <c r="M3" s="44" t="s">
+      <c r="M3" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N3" s="43">
+      <c r="N3" s="33">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="33">
         <v>40</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="33">
         <v>17</v>
       </c>
-      <c r="G4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="43">
+      <c r="G4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="33">
         <v>0</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="43">
+      <c r="I4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="33">
         <v>0</v>
       </c>
-      <c r="K4" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="43">
+      <c r="K4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="33">
         <v>0</v>
       </c>
-      <c r="M4" s="44" t="s">
+      <c r="M4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="43">
+      <c r="N4" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="43" t="s">
+      <c r="D5" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="33">
         <v>15649</v>
       </c>
-      <c r="F5" s="43">
+      <c r="F5" s="33">
         <v>2866</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="43">
+      <c r="G5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="33">
         <v>0</v>
       </c>
-      <c r="I5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="43">
+      <c r="I5" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="33">
         <v>0</v>
       </c>
-      <c r="K5" s="44">
+      <c r="K5" s="34">
         <v>3</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="33">
         <v>1</v>
       </c>
-      <c r="M5" s="44" t="s">
+      <c r="M5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="66" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="33">
         <v>3421</v>
       </c>
-      <c r="F6" s="43">
+      <c r="F6" s="33">
         <v>715</v>
       </c>
-      <c r="G6" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="43">
+      <c r="G6" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="33">
         <v>0</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="43">
+      <c r="J6" s="33">
         <v>2</v>
       </c>
-      <c r="K6" s="44" t="s">
+      <c r="K6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="33">
         <v>3</v>
       </c>
-      <c r="M6" s="44" t="s">
+      <c r="M6" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="33">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="58.8" customHeight="1">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="33">
         <v>44016</v>
       </c>
-      <c r="F7" s="43">
+      <c r="F7" s="33">
         <v>7531</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="43">
+      <c r="G7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="33">
         <v>0</v>
       </c>
-      <c r="I7" s="44" t="s">
+      <c r="I7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J7" s="43">
+      <c r="J7" s="33">
         <v>2</v>
       </c>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="33">
         <v>4</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="33">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="43">
+      <c r="E8" s="33">
         <v>56302</v>
       </c>
-      <c r="F8" s="43">
+      <c r="F8" s="33">
         <v>3096</v>
       </c>
-      <c r="G8" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="43">
+      <c r="G8" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="33">
         <v>0</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="34">
         <v>2101384</v>
       </c>
-      <c r="J8" s="43">
+      <c r="J8" s="33">
         <v>1</v>
       </c>
-      <c r="K8" s="44" t="s">
+      <c r="K8" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="33">
         <v>2</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="33">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="33">
         <v>64674</v>
       </c>
-      <c r="F9" s="43">
+      <c r="F9" s="33">
         <v>6565</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="43">
+      <c r="G9" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="33">
         <v>0</v>
       </c>
-      <c r="I9" s="44" t="s">
+      <c r="I9" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="43">
+      <c r="J9" s="33">
         <v>2</v>
       </c>
-      <c r="K9" s="44" t="s">
+      <c r="K9" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="33">
         <v>3</v>
       </c>
-      <c r="M9" s="44" t="s">
+      <c r="M9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="33">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="43">
+      <c r="E10" s="33">
         <v>65257</v>
       </c>
-      <c r="F10" s="43">
+      <c r="F10" s="33">
         <v>4702</v>
       </c>
-      <c r="G10" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="43">
+      <c r="G10" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33">
         <v>0</v>
       </c>
-      <c r="I10" s="44" t="s">
+      <c r="I10" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="43">
+      <c r="J10" s="33">
         <v>3</v>
       </c>
-      <c r="K10" s="44" t="s">
+      <c r="K10" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="43">
+      <c r="L10" s="33">
         <v>4</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="43">
+      <c r="N10" s="33">
         <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="43">
+      <c r="E11" s="33">
         <v>32428</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="33">
         <v>3104</v>
       </c>
-      <c r="G11" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="43">
+      <c r="G11" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="33">
         <v>0</v>
       </c>
-      <c r="I11" s="44" t="s">
+      <c r="I11" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="33">
         <v>3</v>
       </c>
-      <c r="K11" s="44" t="s">
+      <c r="K11" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="33">
         <v>4</v>
       </c>
-      <c r="M11" s="44" t="s">
+      <c r="M11" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="33">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="408.6" customHeight="1">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="38">
+        <v>0</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="38">
+        <v>4</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="L12" s="38">
+        <v>9</v>
+      </c>
+      <c r="M12" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="408.6" customHeight="1"/>
+    <row r="27" spans="1:8">
+      <c r="A27" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="33">
+        <v>61</v>
+      </c>
+      <c r="F27" s="33">
+        <v>16</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="33">
+        <v>40</v>
+      </c>
+      <c r="F28" s="33">
+        <v>17</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="41.4">
+      <c r="A29" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="33">
+        <v>15649</v>
+      </c>
+      <c r="F29" s="33">
+        <v>2866</v>
+      </c>
+      <c r="G29" s="34">
+        <v>1390</v>
+      </c>
+      <c r="H29" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="41.4">
+      <c r="A30" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" s="33">
+        <v>3421</v>
+      </c>
+      <c r="F30" s="33">
+        <v>715</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H30" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="41.4">
+      <c r="A31" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="33">
+        <v>44016</v>
+      </c>
+      <c r="F31" s="33">
+        <v>7531</v>
+      </c>
+      <c r="G31" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="41.4">
+      <c r="A32" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="33">
+        <v>56302</v>
+      </c>
+      <c r="F32" s="33">
+        <v>3096</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="41.4">
+      <c r="A33" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="33">
+        <v>64674</v>
+      </c>
+      <c r="F33" s="33">
+        <v>6565</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="41.4">
+      <c r="A34" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="33">
+        <v>65257</v>
+      </c>
+      <c r="F34" s="33">
+        <v>4702</v>
+      </c>
+      <c r="G34" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="41.4">
+      <c r="A35" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="33">
+        <v>32428</v>
+      </c>
+      <c r="F35" s="33">
+        <v>3104</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B54" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C54" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="46" t="s">
+      <c r="D54" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="46"/>
-    </row>
-    <row r="13" spans="1:14" ht="408.6" customHeight="1">
-      <c r="A13" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="48">
-        <v>0</v>
-      </c>
-      <c r="I13" s="49"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="48"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="43">
-        <v>61</v>
-      </c>
-      <c r="F27" s="43">
-        <v>16</v>
-      </c>
-      <c r="G27" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H27" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="43">
-        <v>40</v>
-      </c>
-      <c r="F28" s="43">
-        <v>17</v>
-      </c>
-      <c r="G28" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="H28" s="43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="41.4">
-      <c r="A29" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="43">
-        <v>15649</v>
-      </c>
-      <c r="F29" s="43">
-        <v>2866</v>
-      </c>
-      <c r="G29" s="44">
-        <v>1390</v>
-      </c>
-      <c r="H29" s="43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="41.4">
-      <c r="A30" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="43">
-        <v>3421</v>
-      </c>
-      <c r="F30" s="43">
-        <v>715</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="41.4">
-      <c r="A31" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="43">
-        <v>44016</v>
-      </c>
-      <c r="F31" s="43">
-        <v>7531</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>53</v>
-      </c>
-      <c r="H31" s="43">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="41.4">
-      <c r="A32" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="43">
-        <v>56302</v>
-      </c>
-      <c r="F32" s="43">
-        <v>3096</v>
-      </c>
-      <c r="G32" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="41.4">
-      <c r="A33" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="43">
-        <v>64674</v>
-      </c>
-      <c r="F33" s="43">
-        <v>6565</v>
-      </c>
-      <c r="G33" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="43">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="41.4">
-      <c r="A34" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D34" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="43">
-        <v>65257</v>
-      </c>
-      <c r="F34" s="43">
-        <v>4702</v>
-      </c>
-      <c r="G34" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="41.4">
-      <c r="A35" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="43">
-        <v>32428</v>
-      </c>
-      <c r="F35" s="43">
-        <v>3104</v>
-      </c>
-      <c r="G35" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="H35" s="43">
-        <v>8</v>
-      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="34"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2153,4 +3006,530 @@
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{794A106B-DFDF-4336-8380-3F229E76B297}">
+  <dimension ref="A1:M18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="23.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="B1" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="52"/>
+      <c r="H1" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="54"/>
+      <c r="L1" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="56"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="58"/>
+      <c r="M2" s="58"/>
+    </row>
+    <row r="3" spans="1:13" ht="22.2" customHeight="1">
+      <c r="A3" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59">
+        <v>1</v>
+      </c>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="59"/>
+    </row>
+    <row r="5" spans="1:13" ht="41.4">
+      <c r="A5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="59"/>
+    </row>
+    <row r="6" spans="1:13" ht="41.4">
+      <c r="A6" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="60"/>
+      <c r="H6" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="59"/>
+    </row>
+    <row r="7" spans="1:13" ht="41.4">
+      <c r="A7" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="60"/>
+      <c r="H7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="59"/>
+    </row>
+    <row r="8" spans="1:13" ht="41.4">
+      <c r="A8" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="59"/>
+      <c r="L8" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="59"/>
+    </row>
+    <row r="9" spans="1:13" ht="41.4">
+      <c r="A9" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="60"/>
+      <c r="H9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M9" s="59"/>
+    </row>
+    <row r="10" spans="1:13" ht="41.4">
+      <c r="A10" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="59"/>
+    </row>
+    <row r="11" spans="1:13" ht="41.4">
+      <c r="A11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="59"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="59"/>
+      <c r="L12" s="59">
+        <v>1</v>
+      </c>
+      <c r="M12" s="59"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="59">
+        <v>0</v>
+      </c>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59">
+        <v>0</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59">
+        <v>0</v>
+      </c>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59">
+        <v>0</v>
+      </c>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59">
+        <v>0</v>
+      </c>
+      <c r="K16" s="59"/>
+      <c r="L16" s="59">
+        <v>1</v>
+      </c>
+      <c r="M16" s="59"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="59">
+        <v>0</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59">
+        <v>0</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59">
+        <v>0</v>
+      </c>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59">
+        <v>0</v>
+      </c>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59">
+        <v>0</v>
+      </c>
+      <c r="K17" s="59"/>
+      <c r="L17" s="59">
+        <v>0</v>
+      </c>
+      <c r="M17" s="59"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="59">
+        <v>0</v>
+      </c>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59">
+        <v>0</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59">
+        <v>0</v>
+      </c>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59">
+        <v>0</v>
+      </c>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59">
+        <v>0</v>
+      </c>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59">
+        <v>1</v>
+      </c>
+      <c r="M18" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>